--- a/mie_raw.xlsx
+++ b/mie_raw.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slane84\OneDrive - The University Of British Columbia\Documents\Dissertation\HabitatRecovery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/stefanie_lane_ubc_ca/Documents/Documents/Dissertation/HabitatRecovery/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{F928DD00-6613-4A3E-9DF0-4AEE4A8D1677}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{212AF73C-41CA-4ABF-A76E-F49327DEBF42}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{497DC40B-6834-4D69-913E-51470E6FB271}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7750" activeTab="1" xr2:uid="{C05EFD09-5AA6-4BEF-9249-D79F91253A1B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7750" xr2:uid="{C05EFD09-5AA6-4BEF-9249-D79F91253A1B}"/>
   </bookViews>
   <sheets>
-    <sheet name="README" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$Y$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="70">
   <si>
     <t>REF_01_A</t>
   </si>
@@ -229,22 +228,10 @@
     <t>excl10</t>
   </si>
   <si>
-    <t>elev</t>
-  </si>
-  <si>
     <t>sal</t>
   </si>
   <si>
     <t>bare</t>
-  </si>
-  <si>
-    <t>"bare" is percent of plot not covered by aerial vegetation, calcualted as 100-(sum of plots)</t>
-  </si>
-  <si>
-    <t>relative cover</t>
-  </si>
-  <si>
-    <t>for any plots with &gt; 100 coverage (after bare ground calculation), all cover was standardized to be relative of 100%. (value/plot sum)*100</t>
   </si>
   <si>
     <t>elpar</t>
@@ -604,54 +591,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC776BF-CB5E-496A-9131-BCB1B651D8F3}">
-  <dimension ref="A4:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4215E54-0B45-4B81-A2DF-8CDA466E2B4F}">
-  <dimension ref="A1:Y65"/>
+  <dimension ref="A1:X65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
+      <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="8.7265625" style="1"/>
+    <col min="6" max="11" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -665,70 +620,67 @@
         <v>40</v>
       </c>
       <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W1" t="s">
+        <v>59</v>
+      </c>
+      <c r="X1" t="s">
         <v>67</v>
       </c>
-      <c r="F1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R1" t="s">
-        <v>53</v>
-      </c>
-      <c r="S1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U1" t="s">
-        <v>56</v>
-      </c>
-      <c r="V1" t="s">
-        <v>57</v>
-      </c>
-      <c r="W1" t="s">
-        <v>58</v>
-      </c>
-      <c r="X1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -744,17 +696,17 @@
       <c r="E2">
         <v>1.63</v>
       </c>
-      <c r="F2">
-        <v>3.51</v>
+      <c r="F2" s="2">
+        <v>0</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2">
         <v>0</v>
@@ -762,17 +714,17 @@
       <c r="K2" s="2">
         <v>0</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="3">
         <v>0</v>
       </c>
       <c r="M2" s="3">
         <v>0</v>
       </c>
       <c r="N2" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O2" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P2" s="3">
         <v>0</v>
@@ -781,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="R2" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S2" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T2" s="3">
         <v>0</v>
@@ -799,13 +751,10 @@
         <v>0</v>
       </c>
       <c r="X2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -821,8 +770,8 @@
       <c r="E3">
         <v>0.96</v>
       </c>
-      <c r="F3">
-        <v>3.44</v>
+      <c r="F3" s="2">
+        <v>0</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -834,34 +783,34 @@
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="2">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
         <v>0</v>
       </c>
       <c r="M3" s="3">
         <v>0</v>
       </c>
       <c r="N3" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O3" s="3">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="P3" s="3">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="3">
         <v>0</v>
       </c>
       <c r="R3" s="3">
-        <v>0</v>
+        <v>18.75</v>
       </c>
       <c r="S3" s="3">
-        <v>18.75</v>
+        <v>0</v>
       </c>
       <c r="T3" s="3">
         <v>0</v>
@@ -876,13 +825,10 @@
         <v>0</v>
       </c>
       <c r="X3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="3">
         <v>17.75</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -898,8 +844,8 @@
       <c r="E4">
         <v>13.42</v>
       </c>
-      <c r="F4">
-        <v>3.4049999999999998</v>
+      <c r="F4" s="2">
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -911,12 +857,12 @@
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K4" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
         <v>0</v>
       </c>
       <c r="M4" s="3">
@@ -926,25 +872,25 @@
         <v>0</v>
       </c>
       <c r="O4" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
         <v>20</v>
       </c>
-      <c r="Q4" s="3">
-        <v>0</v>
-      </c>
-      <c r="R4" s="3">
-        <v>0</v>
-      </c>
-      <c r="S4" s="3">
-        <v>0</v>
-      </c>
       <c r="T4" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="U4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="3">
         <v>0</v>
@@ -953,13 +899,10 @@
         <v>0</v>
       </c>
       <c r="X4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="3">
         <v>58.9</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -975,53 +918,53 @@
       <c r="E5">
         <v>8.2200000000000006</v>
       </c>
-      <c r="F5">
-        <v>3.5</v>
+      <c r="F5" s="2">
+        <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H5" s="2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
       </c>
       <c r="J5" s="2">
-        <v>0</v>
+        <v>3.125</v>
       </c>
       <c r="K5" s="2">
-        <v>3.125</v>
-      </c>
-      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
         <v>0</v>
       </c>
       <c r="M5" s="3">
         <v>0</v>
       </c>
       <c r="N5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="3">
+        <v>60</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
+        <v>15</v>
+      </c>
+      <c r="T5" s="3">
         <v>1</v>
       </c>
-      <c r="P5" s="3">
-        <v>60</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3">
-        <v>0</v>
-      </c>
-      <c r="S5" s="3">
-        <v>0</v>
-      </c>
-      <c r="T5" s="3">
-        <v>15</v>
-      </c>
       <c r="U5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="3">
         <v>0</v>
@@ -1030,13 +973,10 @@
         <v>0</v>
       </c>
       <c r="X5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="3">
         <v>19.775000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -1052,8 +992,8 @@
       <c r="E6">
         <v>12.48</v>
       </c>
-      <c r="F6">
-        <v>3.32</v>
+      <c r="F6" s="2">
+        <v>0</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -1070,7 +1010,7 @@
       <c r="K6" s="2">
         <v>0</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="3">
         <v>0</v>
       </c>
       <c r="M6" s="3">
@@ -1080,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="O6" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
         <v>2</v>
       </c>
-      <c r="Q6" s="3">
-        <v>0</v>
-      </c>
-      <c r="R6" s="3">
-        <v>0</v>
-      </c>
-      <c r="S6" s="3">
-        <v>0</v>
-      </c>
       <c r="T6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" s="3">
         <v>0</v>
@@ -1107,13 +1047,10 @@
         <v>0</v>
       </c>
       <c r="X6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -1129,8 +1066,8 @@
       <c r="E7">
         <v>13.45</v>
       </c>
-      <c r="F7">
-        <v>3.3</v>
+      <c r="F7" s="2">
+        <v>0</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -1147,7 +1084,7 @@
       <c r="K7" s="2">
         <v>0</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="3">
         <v>0</v>
       </c>
       <c r="M7" s="3">
@@ -1160,22 +1097,22 @@
         <v>0</v>
       </c>
       <c r="P7" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q7" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R7" s="3">
         <v>0</v>
       </c>
       <c r="S7" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" s="3">
         <v>0</v>
@@ -1184,13 +1121,10 @@
         <v>0</v>
       </c>
       <c r="X7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="3">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -1206,8 +1140,8 @@
       <c r="E8">
         <v>13.73</v>
       </c>
-      <c r="F8">
-        <v>3.4449999999999998</v>
+      <c r="F8" s="2">
+        <v>0</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -1224,7 +1158,7 @@
       <c r="K8" s="2">
         <v>0</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="M8" s="3">
@@ -1234,10 +1168,10 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P8" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -1246,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="S8" s="3">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="T8" s="3">
-        <v>33</v>
+        <v>6.25</v>
       </c>
       <c r="U8" s="3">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="V8" s="3">
         <v>0</v>
@@ -1261,13 +1195,10 @@
         <v>0</v>
       </c>
       <c r="X8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3">
         <v>10.75</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -1283,8 +1214,8 @@
       <c r="E9">
         <v>13.56</v>
       </c>
-      <c r="F9">
-        <v>3.4249999999999998</v>
+      <c r="F9" s="2">
+        <v>0</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -1301,7 +1232,7 @@
       <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="3">
         <v>0</v>
       </c>
       <c r="M9" s="3">
@@ -1311,10 +1242,10 @@
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P9" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
@@ -1323,13 +1254,13 @@
         <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T9" s="3">
-        <v>20</v>
+        <v>18.75</v>
       </c>
       <c r="U9" s="3">
-        <v>18.75</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3">
         <v>0</v>
@@ -1338,13 +1269,10 @@
         <v>0</v>
       </c>
       <c r="X9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="3">
         <v>36.25</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -1360,8 +1288,8 @@
       <c r="E10">
         <v>10.199999999999999</v>
       </c>
-      <c r="F10">
-        <v>3.56</v>
+      <c r="F10" s="2">
+        <v>0</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -1373,12 +1301,12 @@
         <v>0</v>
       </c>
       <c r="J10" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K10" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>0</v>
       </c>
       <c r="M10" s="3">
@@ -1388,25 +1316,25 @@
         <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P10" s="3">
+        <v>90</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>2</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>90</v>
-      </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
       </c>
       <c r="T10" s="3">
         <v>2</v>
       </c>
       <c r="U10" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V10" s="3">
         <v>0</v>
@@ -1415,13 +1343,10 @@
         <v>0</v>
       </c>
       <c r="X10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="3">
         <v>3.9000000000000057</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -1437,25 +1362,25 @@
       <c r="E11">
         <v>9.35</v>
       </c>
-      <c r="F11">
-        <v>3.5799999999999996</v>
+      <c r="F11" s="2">
+        <v>0</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
         <v>1</v>
       </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
       <c r="K11" s="2">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
         <v>0</v>
       </c>
       <c r="M11" s="3">
@@ -1465,25 +1390,25 @@
         <v>0</v>
       </c>
       <c r="O11" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P11" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0</v>
+      </c>
+      <c r="S11" s="3">
+        <v>25</v>
+      </c>
+      <c r="T11" s="3">
         <v>2</v>
       </c>
-      <c r="Q11" s="3">
-        <v>60</v>
-      </c>
-      <c r="R11" s="3">
-        <v>0</v>
-      </c>
-      <c r="S11" s="3">
-        <v>0</v>
-      </c>
-      <c r="T11" s="3">
-        <v>25</v>
-      </c>
       <c r="U11" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V11" s="3">
         <v>0</v>
@@ -1492,13 +1417,10 @@
         <v>0</v>
       </c>
       <c r="X11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -1514,16 +1436,16 @@
       <c r="E12">
         <v>0.81399999999999995</v>
       </c>
-      <c r="F12">
-        <v>3.5999999999999996</v>
+      <c r="F12" s="2">
+        <v>0</v>
       </c>
       <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
         <f>(20/113.5)*100</f>
         <v>17.621145374449341</v>
       </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
       <c r="I12" s="2">
         <v>0</v>
       </c>
@@ -1533,39 +1455,39 @@
       <c r="K12" s="2">
         <v>0</v>
       </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="L12" s="3">
         <f>(12.5/113.5)*100</f>
         <v>11.013215859030836</v>
       </c>
-      <c r="N12" s="3">
+      <c r="M12" s="3">
         <f>(20/113.5)*100</f>
         <v>17.621145374449341</v>
       </c>
-      <c r="O12" s="3">
+      <c r="N12" s="3">
         <f>(1/113.5)*100</f>
         <v>0.88105726872246704</v>
       </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
       <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3">
         <f>(25/113.5)*100</f>
         <v>22.026431718061673</v>
       </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
       <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3">
         <f>(33/113.5)*100</f>
         <v>29.074889867841406</v>
       </c>
-      <c r="T12" s="3">
+      <c r="S12" s="3">
         <f>(2/113.5)*100</f>
         <v>1.7621145374449341</v>
       </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
       <c r="U12" s="3">
         <v>0</v>
       </c>
@@ -1578,11 +1500,8 @@
       <c r="X12" s="3">
         <v>0</v>
       </c>
-      <c r="Y12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -1598,14 +1517,14 @@
       <c r="E13">
         <v>0.43</v>
       </c>
-      <c r="F13">
-        <v>3.5349999999999997</v>
+      <c r="F13" s="2">
+        <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>0</v>
+        <v>3.125</v>
       </c>
       <c r="H13" s="2">
-        <v>3.125</v>
+        <v>0</v>
       </c>
       <c r="I13" s="2">
         <v>0</v>
@@ -1616,32 +1535,32 @@
       <c r="K13" s="2">
         <v>0</v>
       </c>
-      <c r="L13" s="2">
-        <v>0</v>
+      <c r="L13" s="3">
+        <v>60</v>
       </c>
       <c r="M13" s="3">
-        <v>60</v>
+        <v>6.25</v>
       </c>
       <c r="N13" s="3">
-        <v>6.25</v>
+        <v>2</v>
       </c>
       <c r="O13" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P13" s="3">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
         <v>12.5</v>
       </c>
-      <c r="R13" s="3">
-        <v>0</v>
-      </c>
       <c r="S13" s="3">
-        <v>12.5</v>
+        <v>1</v>
       </c>
       <c r="T13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" s="3">
         <v>0</v>
@@ -1653,13 +1572,10 @@
         <v>0</v>
       </c>
       <c r="X13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="3">
         <v>2.625</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -1675,50 +1591,50 @@
       <c r="E14">
         <v>0.52</v>
       </c>
-      <c r="F14">
-        <v>3.4249999999999998</v>
+      <c r="F14" s="2">
+        <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>25</v>
+      </c>
+      <c r="M14" s="3">
         <v>1</v>
       </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>25</v>
-      </c>
       <c r="N14" s="3">
-        <v>1</v>
+        <v>6.25</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>15.625</v>
+      </c>
+      <c r="S14" s="3">
         <v>6.25</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>15.625</v>
-      </c>
       <c r="T14" s="3">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1730,13 +1646,10 @@
         <v>0</v>
       </c>
       <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
         <v>44.774999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -1752,16 +1665,16 @@
       <c r="E15">
         <v>1.82</v>
       </c>
-      <c r="F15">
-        <v>3.7349999999999999</v>
+      <c r="F15" s="2">
+        <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
         <f>(6.25/117.35)*100</f>
         <v>5.3259480187473374</v>
       </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
       <c r="I15" s="2">
         <v>0</v>
       </c>
@@ -1769,59 +1682,56 @@
         <v>0</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
         <f>(0.1/117.35)*100</f>
         <v>8.52151682999574E-2</v>
       </c>
-      <c r="M15" s="3">
+      <c r="L15" s="3">
         <f>(75/117.35)*100</f>
         <v>63.911376224968052</v>
       </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
       <c r="N15" s="3">
-        <v>0</v>
+        <f>(2/117.35)*100</f>
+        <v>1.704303365999148</v>
       </c>
       <c r="O15" s="3">
         <f>(2/117.35)*100</f>
         <v>1.704303365999148</v>
       </c>
       <c r="P15" s="3">
-        <f>(2/117.35)*100</f>
-        <v>1.704303365999148</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
       <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
         <f>(30/117.35)*100</f>
         <v>25.564550489987219</v>
       </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
       <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
         <f>(1/117.35)*100</f>
         <v>0.852151682999574</v>
       </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
       <c r="V15" s="3">
         <v>0</v>
       </c>
       <c r="W15" s="3">
-        <v>0</v>
-      </c>
-      <c r="X15" s="3">
         <f>(1/117.35)*100</f>
         <v>0.852151682999574</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -1837,14 +1747,14 @@
       <c r="E16">
         <v>0.47</v>
       </c>
-      <c r="F16">
-        <v>3.5649999999999999</v>
+      <c r="F16" s="2">
+        <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="H16" s="2">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
@@ -1855,29 +1765,29 @@
       <c r="K16" s="2">
         <v>0</v>
       </c>
-      <c r="L16" s="2">
-        <v>0</v>
+      <c r="L16" s="3">
+        <v>6.25</v>
       </c>
       <c r="M16" s="3">
+        <v>1</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3">
         <v>6.25</v>
       </c>
-      <c r="N16" s="3">
-        <v>1</v>
-      </c>
-      <c r="O16" s="3">
-        <v>0</v>
-      </c>
-      <c r="P16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>25</v>
-      </c>
-      <c r="R16" s="3">
-        <v>0</v>
-      </c>
       <c r="S16" s="3">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="T16" s="3">
         <v>0</v>
@@ -1892,13 +1802,10 @@
         <v>0</v>
       </c>
       <c r="X16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="3">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -1914,14 +1821,14 @@
       <c r="E17">
         <v>0.61</v>
       </c>
-      <c r="F17">
-        <v>3.9449999999999998</v>
+      <c r="F17" s="2">
+        <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
@@ -1932,11 +1839,11 @@
       <c r="K17" s="2">
         <v>0</v>
       </c>
-      <c r="L17" s="2">
-        <v>0</v>
+      <c r="L17" s="3">
+        <v>0.1</v>
       </c>
       <c r="M17" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3">
         <v>0</v>
@@ -1945,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="3">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="R17" s="3">
-        <v>0</v>
+        <v>3.125</v>
       </c>
       <c r="S17" s="3">
-        <v>3.125</v>
+        <v>0</v>
       </c>
       <c r="T17" s="3">
         <v>0</v>
@@ -1969,13 +1876,10 @@
         <v>0</v>
       </c>
       <c r="X17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="3">
         <v>0.77500000000000568</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -1991,39 +1895,39 @@
       <c r="E18">
         <v>6.56</v>
       </c>
-      <c r="F18">
-        <v>3.46</v>
+      <c r="F18" s="2">
+        <v>0</v>
       </c>
       <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
         <f>(80/138.25)*100</f>
         <v>57.866184448462931</v>
       </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
       <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2">
         <f>(1/138.25)*100</f>
         <v>0.72332730560578662</v>
       </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
       <c r="K18" s="2">
         <v>0</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
         <f>(1/138.25)*100</f>
         <v>0.72332730560578662</v>
       </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
@@ -2031,12 +1935,12 @@
         <v>0</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
         <f>(50/138.25)*100</f>
         <v>36.166365280289334</v>
       </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
@@ -2047,17 +1951,14 @@
         <v>0</v>
       </c>
       <c r="W18" s="3">
-        <v>0</v>
-      </c>
-      <c r="X18" s="3">
         <f>(6.25/138.25)*100</f>
         <v>4.5207956600361667</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -2073,51 +1974,51 @@
       <c r="E19">
         <v>6.45</v>
       </c>
-      <c r="F19">
-        <v>3.4850000000000003</v>
+      <c r="F19" s="2">
+        <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
         <f>(85/131.975)*100</f>
         <v>64.406137526046606</v>
       </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
       <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2">
         <f>(0.1/131.975)*100</f>
         <v>7.5771926501231296E-2</v>
       </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
       <c r="K19" s="2">
         <v>0</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="3">
         <v>0</v>
       </c>
       <c r="M19" s="3">
         <v>0</v>
       </c>
       <c r="N19" s="3">
-        <v>0</v>
-      </c>
-      <c r="O19" s="3">
         <f>(3.125/131.975)*100</f>
         <v>2.3678727031634783</v>
       </c>
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
       <c r="P19" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="3">
         <f>(18.75/131.975)*100</f>
         <v>14.207236218980867</v>
       </c>
+      <c r="Q19" s="3">
+        <v>0</v>
+      </c>
       <c r="R19" s="3">
-        <v>0</v>
+        <v>14.21</v>
       </c>
       <c r="S19" s="3">
-        <v>14.21</v>
+        <v>0</v>
       </c>
       <c r="T19" s="3">
         <v>0</v>
@@ -2129,17 +2030,14 @@
         <v>0</v>
       </c>
       <c r="W19" s="3">
-        <v>0</v>
-      </c>
-      <c r="X19" s="3">
         <f>(6.25/131.975)*100</f>
         <v>4.7357454063269566</v>
       </c>
-      <c r="Y19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="X19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -2155,25 +2053,25 @@
       <c r="E20" t="s">
         <v>2</v>
       </c>
-      <c r="F20">
-        <v>3.2350000000000003</v>
+      <c r="F20" s="2">
+        <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H20" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J20" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
@@ -2207,16 +2105,13 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -2232,27 +2127,27 @@
       <c r="E21" t="s">
         <v>2</v>
       </c>
-      <c r="F21">
-        <v>3.3</v>
+      <c r="F21" s="2">
+        <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
         <f>(35/115.1)*100</f>
         <v>30.408340573414421</v>
       </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
       <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2">
         <f>(80/115.1)*100</f>
         <v>69.504778453518682</v>
       </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
       <c r="K21" s="2">
         <v>0</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="3">
         <v>0</v>
       </c>
       <c r="M21" s="3">
@@ -2271,12 +2166,12 @@
         <v>0</v>
       </c>
       <c r="R21" s="3">
-        <v>0</v>
-      </c>
-      <c r="S21" s="3">
         <f>(0.1/115.1)*100</f>
         <v>8.6880973066898348E-2</v>
       </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
       <c r="T21" s="3">
         <v>0</v>
       </c>
@@ -2292,11 +2187,8 @@
       <c r="X21" s="3">
         <v>0</v>
       </c>
-      <c r="Y21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -2312,53 +2204,53 @@
       <c r="E22">
         <v>6.47</v>
       </c>
-      <c r="F22">
-        <v>3.46</v>
+      <c r="F22" s="2">
+        <v>0</v>
       </c>
       <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
         <f>(90/109.75)*100</f>
         <v>82.004555808656036</v>
       </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
       <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2">
         <f>(6.25/109.75)*100</f>
         <v>5.6947608200455582</v>
       </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
       <c r="K22" s="2">
         <v>0</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="3">
         <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
         <f>(1/109.75)*100</f>
         <v>0.91116173120728927</v>
       </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
       <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
         <f>(6.25/109.75)*100</f>
         <v>5.6947608200455582</v>
       </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
       <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3">
         <f>(6.25/109.75)*100</f>
         <v>5.6947608200455582</v>
       </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
@@ -2374,11 +2266,8 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -2394,53 +2283,53 @@
       <c r="E23">
         <v>7.76</v>
       </c>
-      <c r="F23">
-        <v>3.3600000000000003</v>
+      <c r="F23" s="2">
+        <v>0</v>
       </c>
       <c r="G23" s="2">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
         <f>(80/115.375)*100</f>
         <v>69.339111592632719</v>
       </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
       <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2">
         <f>(25/115.375)*100</f>
         <v>21.668472372697725</v>
       </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
       <c r="K23" s="2">
         <v>0</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="3">
         <v>0</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
         <f>(1/115.375)*100</f>
         <v>0.8667388949079089</v>
       </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
       <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
         <f>(3.125/115.375)*100</f>
         <v>2.7085590465872156</v>
       </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
       <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3">
         <f>(6.25/115.375)*100</f>
         <v>5.4171180931744312</v>
       </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
@@ -2456,11 +2345,8 @@
       <c r="X23" s="3">
         <v>0</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -2476,53 +2362,53 @@
       <c r="E24">
         <v>5.61</v>
       </c>
-      <c r="F24">
-        <v>3.48</v>
+      <c r="F24" s="2">
+        <v>0</v>
       </c>
       <c r="G24" s="2">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2">
         <f>(80/109.125)*100</f>
         <v>73.310423825887739</v>
       </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
       <c r="I24" s="2">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2">
         <f>(6.25/109.125)*100</f>
         <v>5.72737686139748</v>
       </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
       <c r="K24" s="2">
         <v>0</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
         <f>(1/109.125)*100</f>
         <v>0.91638029782359687</v>
       </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
       <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
         <f>(9.375/109.125)*100</f>
         <v>8.5910652920962196</v>
       </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
       <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
         <f>(12.5/109.125)*100</f>
         <v>11.45475372279496</v>
       </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
@@ -2538,11 +2424,8 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -2558,53 +2441,53 @@
       <c r="E25">
         <v>5.4</v>
       </c>
-      <c r="F25">
-        <v>3.51</v>
+      <c r="F25" s="2">
+        <v>0</v>
       </c>
       <c r="G25" s="2">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
         <f>(65/117)*100</f>
         <v>55.555555555555557</v>
       </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
       <c r="I25" s="2">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2">
         <f>(1/117)*100</f>
         <v>0.85470085470085477</v>
       </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
       <c r="K25" s="2">
         <v>0</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="3">
         <v>0</v>
       </c>
       <c r="M25" s="3">
         <v>0</v>
       </c>
       <c r="N25" s="3">
-        <v>0</v>
-      </c>
-      <c r="O25" s="3">
         <f>(1/117)*100</f>
         <v>0.85470085470085477</v>
       </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
       <c r="P25" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="3">
         <f>(10/117)*100</f>
         <v>8.5470085470085468</v>
       </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
       <c r="R25" s="3">
-        <v>0</v>
-      </c>
-      <c r="S25" s="3">
         <f>(40/117)*100</f>
         <v>34.188034188034187</v>
       </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
       <c r="T25" s="3">
         <v>0</v>
       </c>
@@ -2620,11 +2503,8 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-      <c r="Y25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -2640,8 +2520,8 @@
       <c r="E26">
         <v>7.02</v>
       </c>
-      <c r="F26">
-        <v>2.9800000000000004</v>
+      <c r="F26" s="2">
+        <v>0</v>
       </c>
       <c r="G26" s="2">
         <v>0</v>
@@ -2658,20 +2538,20 @@
       <c r="K26" s="2">
         <v>0</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="3">
         <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="O26" s="3">
-        <v>6.25</v>
+        <v>25</v>
       </c>
       <c r="P26" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
@@ -2680,13 +2560,13 @@
         <v>0</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="3">
-        <v>1</v>
+        <v>3.125</v>
       </c>
       <c r="U26" s="3">
-        <v>3.125</v>
+        <v>0</v>
       </c>
       <c r="V26" s="3">
         <v>0</v>
@@ -2695,13 +2575,10 @@
         <v>0</v>
       </c>
       <c r="X26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="3">
         <v>64.625</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -2717,8 +2594,8 @@
       <c r="E27">
         <v>10.62</v>
       </c>
-      <c r="F27">
-        <v>3.06</v>
+      <c r="F27" s="2">
+        <v>0</v>
       </c>
       <c r="G27" s="2">
         <v>0</v>
@@ -2730,55 +2607,52 @@
         <v>0</v>
       </c>
       <c r="J27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>25</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>1</v>
       </c>
-      <c r="L27" s="2">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>25</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
+        <v>3.125</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>1</v>
       </c>
-      <c r="U27" s="3">
-        <v>3.125</v>
-      </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="3">
         <v>68.875</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -2794,77 +2668,74 @@
       <c r="E28">
         <v>3.75</v>
       </c>
-      <c r="F28">
-        <v>2.9400000000000004</v>
+      <c r="F28" s="2">
+        <v>0</v>
       </c>
       <c r="G28" s="2">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2">
         <f>(1/188.5)*100</f>
         <v>0.53050397877984079</v>
       </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
       <c r="I28" s="2">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2">
         <f>(9.375/188.5)*100</f>
         <v>4.9734748010610081</v>
       </c>
-      <c r="K28" s="2">
+      <c r="J28" s="2">
         <f>(3.125/188.5)*100</f>
         <v>1.6578249336870028</v>
       </c>
-      <c r="L28" s="2">
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
         <v>0</v>
       </c>
       <c r="M28" s="3">
         <v>0</v>
       </c>
       <c r="N28" s="3">
-        <v>0</v>
-      </c>
-      <c r="O28" s="3">
         <f>(75/188.5)*100</f>
         <v>39.787798408488065</v>
       </c>
-      <c r="P28" s="3">
+      <c r="O28" s="3">
         <f>(50/188.5)*100</f>
         <v>26.525198938992045</v>
       </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
       <c r="Q28" s="3">
         <v>0</v>
       </c>
       <c r="R28" s="3">
-        <v>0</v>
-      </c>
-      <c r="S28" s="3">
         <f>(18.75/188.5)*100</f>
         <v>9.9469496021220163</v>
       </c>
-      <c r="T28" s="3">
+      <c r="S28" s="3">
         <f>(3.125/188.5)*100</f>
         <v>1.6578249336870028</v>
       </c>
-      <c r="U28" s="3">
+      <c r="T28" s="3">
         <f>(25/188.5)*100</f>
         <v>13.262599469496022</v>
       </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
       <c r="V28" s="3">
         <v>0</v>
       </c>
       <c r="W28" s="3">
-        <v>0</v>
-      </c>
-      <c r="X28" s="3">
         <f>(3.125/188.5)*100</f>
         <v>1.6578249336870028</v>
       </c>
-      <c r="Y28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -2880,8 +2751,8 @@
       <c r="E29">
         <v>5.17</v>
       </c>
-      <c r="F29">
-        <v>2.83</v>
+      <c r="F29" s="2">
+        <v>0</v>
       </c>
       <c r="G29" s="2">
         <v>0</v>
@@ -2890,33 +2761,33 @@
         <v>0</v>
       </c>
       <c r="I29" s="2">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2">
         <f>(12.5/154.25)*100</f>
         <v>8.1037277147487838</v>
       </c>
-      <c r="K29" s="2">
+      <c r="J29" s="2">
         <f>(18.75/154.25)*100</f>
         <v>12.155591572123177</v>
       </c>
-      <c r="L29" s="2">
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
         <f>(1/154.25)*100</f>
         <v>0.64829821717990277</v>
       </c>
-      <c r="P29" s="3">
+      <c r="O29" s="3">
         <f>(75/154.25)*100</f>
         <v>48.622366288492707</v>
       </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
@@ -2924,31 +2795,28 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3">
         <f>(1/154.25)*100</f>
         <v>0.64829821717990277</v>
       </c>
-      <c r="U29" s="3">
+      <c r="T29" s="3">
         <f>(45/154.25)*100</f>
         <v>29.17341977309562</v>
       </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
       <c r="W29" s="3">
-        <v>0</v>
-      </c>
-      <c r="X29" s="3">
         <f>(1/154.25)*100</f>
         <v>0.64829821717990277</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -2964,68 +2832,65 @@
       <c r="E30">
         <v>3.71</v>
       </c>
-      <c r="F30">
-        <v>2.92</v>
+      <c r="F30" s="2">
+        <v>0</v>
       </c>
       <c r="G30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
         <v>1</v>
       </c>
-      <c r="I30" s="2">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0</v>
-      </c>
       <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>33</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>3.125</v>
+      </c>
+      <c r="S30" s="3">
         <v>1</v>
       </c>
-      <c r="L30" s="2">
-        <v>0</v>
-      </c>
-      <c r="M30" s="3">
-        <v>0</v>
-      </c>
-      <c r="N30" s="3">
-        <v>0</v>
-      </c>
-      <c r="O30" s="3">
-        <v>0</v>
-      </c>
-      <c r="P30" s="3">
-        <v>33</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>0</v>
-      </c>
-      <c r="R30" s="3">
-        <v>0</v>
-      </c>
-      <c r="S30" s="3">
-        <v>3.125</v>
-      </c>
       <c r="T30" s="3">
+        <v>6.25</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
         <v>1</v>
       </c>
-      <c r="U30" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="V30" s="3">
-        <v>0</v>
-      </c>
-      <c r="W30" s="3">
-        <v>0</v>
-      </c>
       <c r="X30" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y30" s="3">
         <v>53.625</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -3041,68 +2906,65 @@
       <c r="E31">
         <v>5.0199999999999996</v>
       </c>
-      <c r="F31">
-        <v>2.92</v>
+      <c r="F31" s="2">
+        <v>0</v>
       </c>
       <c r="G31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
         <v>1</v>
       </c>
-      <c r="I31" s="2">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2">
-        <v>0</v>
-      </c>
       <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>3.125</v>
+      </c>
+      <c r="O31" s="3">
+        <v>65</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
         <v>1</v>
       </c>
-      <c r="L31" s="2">
-        <v>0</v>
-      </c>
-      <c r="M31" s="3">
-        <v>0</v>
-      </c>
-      <c r="N31" s="3">
-        <v>0</v>
-      </c>
-      <c r="O31" s="3">
-        <v>3.125</v>
-      </c>
-      <c r="P31" s="3">
-        <v>65</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>0</v>
-      </c>
-      <c r="R31" s="3">
-        <v>0</v>
-      </c>
       <c r="S31" s="3">
+        <v>6.25</v>
+      </c>
+      <c r="T31" s="3">
+        <v>10</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
         <v>1</v>
       </c>
-      <c r="T31" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="U31" s="3">
-        <v>10</v>
-      </c>
-      <c r="V31" s="3">
-        <v>0</v>
-      </c>
-      <c r="W31" s="3">
-        <v>0</v>
-      </c>
       <c r="X31" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y31" s="3">
         <v>11.625</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -3118,8 +2980,8 @@
       <c r="E32">
         <v>11.16</v>
       </c>
-      <c r="F32">
-        <v>2.8849999999999998</v>
+      <c r="F32" s="2">
+        <v>0</v>
       </c>
       <c r="G32" s="2">
         <v>0</v>
@@ -3128,17 +2990,17 @@
         <v>0</v>
       </c>
       <c r="I32" s="2">
-        <v>0</v>
-      </c>
-      <c r="J32" s="2">
         <f>(0.1/107.45)*100</f>
         <v>9.3066542577943237E-2</v>
       </c>
-      <c r="K32" s="2">
+      <c r="J32" s="2">
         <f>(6.25/107.45)*100</f>
         <v>5.8166589111214515</v>
       </c>
-      <c r="L32" s="2">
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
@@ -3148,12 +3010,12 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
         <f>(60/107.45)*100</f>
         <v>55.839925546765933</v>
       </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -3161,31 +3023,28 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
         <f>(1/107.45)*100</f>
         <v>0.93066542577943234</v>
       </c>
-      <c r="U32" s="3">
+      <c r="T32" s="3">
         <f>(40/107.45)*100</f>
         <v>37.226617031177291</v>
       </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3">
         <f>(0.1/107.45)*100</f>
         <v>9.3066542577943237E-2</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -3201,8 +3060,8 @@
       <c r="E33">
         <v>8.27</v>
       </c>
-      <c r="F33">
-        <v>2.91</v>
+      <c r="F33" s="2">
+        <v>0</v>
       </c>
       <c r="G33" s="2">
         <v>0</v>
@@ -3211,17 +3070,17 @@
         <v>0</v>
       </c>
       <c r="I33" s="2">
-        <v>0</v>
-      </c>
-      <c r="J33" s="2">
         <f>(1/101.375)*100</f>
         <v>0.98643649815043155</v>
       </c>
-      <c r="K33" s="2">
+      <c r="J33" s="2">
         <f>(6.25/101.375)*100</f>
         <v>6.1652281134401976</v>
       </c>
-      <c r="L33" s="2">
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>0</v>
       </c>
       <c r="M33" s="3">
@@ -3231,12 +3090,12 @@
         <v>0</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
         <f>(70/101.375)*100</f>
         <v>69.050554870530206</v>
       </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
@@ -3244,31 +3103,28 @@
         <v>0</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3">
         <f>(1/101.375)*100</f>
         <v>0.98643649815043155</v>
       </c>
-      <c r="U33" s="3">
+      <c r="T33" s="3">
         <f>(20/101.375)*100</f>
         <v>19.728729963008632</v>
       </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
       <c r="V33" s="3">
         <v>0</v>
       </c>
       <c r="W33" s="3">
-        <v>0</v>
-      </c>
-      <c r="X33" s="3">
         <f>(3.125/101.375)*100</f>
         <v>3.0826140567200988</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -3284,53 +3140,53 @@
       <c r="E34">
         <v>4.9400000000000004</v>
       </c>
-      <c r="F34">
-        <v>3.5</v>
+      <c r="F34" s="2">
+        <v>0</v>
       </c>
       <c r="G34" s="2">
-        <v>0</v>
-      </c>
-      <c r="H34" s="2">
         <f>(85/125.5)*100</f>
         <v>67.729083665338635</v>
       </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
       <c r="I34" s="2">
-        <v>0</v>
-      </c>
-      <c r="J34" s="2">
         <f>(6.25/125.5)*100</f>
         <v>4.9800796812749004</v>
       </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
       <c r="K34" s="2">
         <v>0</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="3">
         <v>0</v>
       </c>
       <c r="M34" s="3">
         <v>0</v>
       </c>
       <c r="N34" s="3">
-        <v>0</v>
-      </c>
-      <c r="O34" s="3">
         <f>(1/125.5)*100</f>
         <v>0.79681274900398402</v>
       </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
       <c r="P34" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="3">
         <f>(2/125.5)*100</f>
         <v>1.593625498007968</v>
       </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
       <c r="R34" s="3">
-        <v>0</v>
-      </c>
-      <c r="S34" s="3">
         <f>(25/125.5)*100</f>
         <v>19.920318725099602</v>
       </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
       <c r="T34" s="3">
         <v>0</v>
       </c>
@@ -3341,17 +3197,14 @@
         <v>0</v>
       </c>
       <c r="W34" s="3">
-        <v>0</v>
-      </c>
-      <c r="X34" s="3">
         <f>(6.25/125.5)*100</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="Y34" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -3367,27 +3220,27 @@
       <c r="E35">
         <v>6.34</v>
       </c>
-      <c r="F35">
-        <v>3.56</v>
+      <c r="F35" s="2">
+        <v>0</v>
       </c>
       <c r="G35" s="2">
-        <v>0</v>
-      </c>
-      <c r="H35" s="2">
         <f>(12.5/113.225)*100</f>
         <v>11.039964672113049</v>
       </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
       <c r="I35" s="2">
-        <v>0</v>
-      </c>
-      <c r="J35" s="2">
         <f>(0.1/113.225)*100</f>
         <v>8.8319717376904402E-2</v>
       </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
       <c r="K35" s="2">
         <v>0</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35" s="3">
         <v>0</v>
       </c>
       <c r="M35" s="3">
@@ -3400,41 +3253,38 @@
         <v>0</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
         <f>(3.125/113.225)*100</f>
         <v>2.7599911680282623</v>
       </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
       <c r="R35" s="3">
-        <v>0</v>
-      </c>
-      <c r="S35" s="3">
         <f>(6.25/113.225)*100</f>
         <v>5.5199823360565246</v>
       </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
       <c r="U35" s="3">
-        <v>0</v>
-      </c>
-      <c r="V35" s="3">
         <f>(85/113.225)*100</f>
         <v>75.071759770368743</v>
       </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
       <c r="W35" s="3">
-        <v>0</v>
-      </c>
-      <c r="X35" s="3">
         <f>(6.25/113.225)*100</f>
         <v>5.5199823360565246</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -3450,47 +3300,47 @@
       <c r="E36">
         <v>4.9800000000000004</v>
       </c>
-      <c r="F36">
-        <v>3.3600000000000003</v>
+      <c r="F36" s="2">
+        <v>0</v>
       </c>
       <c r="G36" s="2">
         <v>0</v>
       </c>
       <c r="H36" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I36" s="2">
+        <v>33</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0</v>
+      </c>
+      <c r="N36" s="3">
         <v>0.1</v>
       </c>
-      <c r="J36" s="2">
-        <v>33</v>
-      </c>
-      <c r="K36" s="2">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2">
-        <v>0</v>
-      </c>
-      <c r="M36" s="3">
-        <v>0</v>
-      </c>
-      <c r="N36" s="3">
-        <v>0</v>
-      </c>
       <c r="O36" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P36" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q36" s="3">
+        <v>0</v>
+      </c>
+      <c r="R36" s="3">
         <v>25</v>
       </c>
-      <c r="R36" s="3">
-        <v>0</v>
-      </c>
       <c r="S36" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="T36" s="3">
         <v>0</v>
@@ -3505,13 +3355,10 @@
         <v>0</v>
       </c>
       <c r="X36" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="3">
         <v>16.799999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -3527,27 +3374,27 @@
       <c r="E37">
         <v>6.26</v>
       </c>
-      <c r="F37">
-        <v>3.4750000000000001</v>
+      <c r="F37" s="2">
+        <v>0</v>
       </c>
       <c r="G37" s="2">
-        <v>0</v>
-      </c>
-      <c r="H37" s="2">
         <f>(24/110.625)*100</f>
         <v>21.694915254237287</v>
       </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
       <c r="I37" s="2">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2">
         <f>(6.25/110.625)*100</f>
         <v>5.6497175141242941</v>
       </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
       <c r="K37" s="2">
         <v>0</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37" s="3">
         <v>0</v>
       </c>
       <c r="M37" s="3">
@@ -3560,19 +3407,19 @@
         <v>0</v>
       </c>
       <c r="P37" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="3">
         <f>(36/110.625)*100</f>
         <v>32.542372881355931</v>
       </c>
+      <c r="Q37" s="3">
+        <v>0</v>
+      </c>
       <c r="R37" s="3">
-        <v>0</v>
-      </c>
-      <c r="S37" s="3">
         <f>(35/110.625)*100</f>
         <v>31.638418079096049</v>
       </c>
+      <c r="S37" s="3">
+        <v>0</v>
+      </c>
       <c r="T37" s="3">
         <v>0</v>
       </c>
@@ -3583,17 +3430,14 @@
         <v>0</v>
       </c>
       <c r="W37" s="3">
-        <v>0</v>
-      </c>
-      <c r="X37" s="3">
         <f>(9.375/110.625)*100</f>
         <v>8.4745762711864394</v>
       </c>
-      <c r="Y37" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="X37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -3609,25 +3453,25 @@
       <c r="E38">
         <v>7.14</v>
       </c>
-      <c r="F38">
-        <v>3.37</v>
+      <c r="F38" s="2">
+        <v>0</v>
       </c>
       <c r="G38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J38" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="K38" s="2">
         <v>0</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38" s="3">
         <v>0</v>
       </c>
       <c r="M38" s="3">
@@ -3646,10 +3490,10 @@
         <v>0</v>
       </c>
       <c r="R38" s="3">
-        <v>0</v>
+        <v>3.125</v>
       </c>
       <c r="S38" s="3">
-        <v>3.125</v>
+        <v>0</v>
       </c>
       <c r="T38" s="3">
         <v>0</v>
@@ -3664,13 +3508,10 @@
         <v>0</v>
       </c>
       <c r="X38" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="3">
         <v>5.875</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -3686,29 +3527,29 @@
       <c r="E39">
         <v>5.37</v>
       </c>
-      <c r="F39">
-        <v>3.4350000000000001</v>
-      </c>
-      <c r="G39" s="2">
+      <c r="F39" s="2">
         <f>(1/106.375)*100</f>
         <v>0.9400705052878966</v>
       </c>
-      <c r="H39" s="2">
+      <c r="G39" s="2">
         <f>(6.25/106.375)*100</f>
         <v>5.8754406580493539</v>
       </c>
-      <c r="I39" s="2">
+      <c r="H39" s="2">
         <f>(1/106.375)*100</f>
         <v>0.9400705052878966</v>
       </c>
-      <c r="J39" s="2">
+      <c r="I39" s="2">
         <f>(95/106.375)*100</f>
         <v>89.306698002350174</v>
       </c>
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
       <c r="K39" s="2">
         <v>0</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L39" s="3">
         <v>0</v>
       </c>
       <c r="M39" s="3">
@@ -3727,12 +3568,12 @@
         <v>0</v>
       </c>
       <c r="R39" s="3">
-        <v>0</v>
-      </c>
-      <c r="S39" s="3">
         <f>(3.125/106.375)*100</f>
         <v>2.9377203290246769</v>
       </c>
+      <c r="S39" s="3">
+        <v>0</v>
+      </c>
       <c r="T39" s="3">
         <v>0</v>
       </c>
@@ -3748,11 +3589,8 @@
       <c r="X39" s="3">
         <v>0</v>
       </c>
-      <c r="Y39" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -3768,68 +3606,65 @@
       <c r="E40" t="s">
         <v>2</v>
       </c>
-      <c r="F40">
-        <v>3.3449999999999998</v>
+      <c r="F40" s="2">
+        <v>0</v>
       </c>
       <c r="G40" s="2">
         <v>0</v>
       </c>
       <c r="H40" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" s="2">
+        <v>95</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3">
+        <v>0</v>
+      </c>
+      <c r="M40" s="3">
+        <v>0</v>
+      </c>
+      <c r="N40" s="3">
+        <v>0</v>
+      </c>
+      <c r="O40" s="3">
+        <v>0</v>
+      </c>
+      <c r="P40" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>0</v>
+      </c>
+      <c r="R40" s="3">
+        <v>1</v>
+      </c>
+      <c r="S40" s="3">
+        <v>0</v>
+      </c>
+      <c r="T40" s="3">
+        <v>0</v>
+      </c>
+      <c r="U40" s="3">
+        <v>0</v>
+      </c>
+      <c r="V40" s="3">
+        <v>0</v>
+      </c>
+      <c r="W40" s="3">
+        <v>0</v>
+      </c>
+      <c r="X40" s="3">
         <v>2</v>
       </c>
-      <c r="J40" s="2">
-        <v>95</v>
-      </c>
-      <c r="K40" s="2">
-        <v>0</v>
-      </c>
-      <c r="L40" s="2">
-        <v>0</v>
-      </c>
-      <c r="M40" s="3">
-        <v>0</v>
-      </c>
-      <c r="N40" s="3">
-        <v>0</v>
-      </c>
-      <c r="O40" s="3">
-        <v>0</v>
-      </c>
-      <c r="P40" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="3">
-        <v>0</v>
-      </c>
-      <c r="R40" s="3">
-        <v>0</v>
-      </c>
-      <c r="S40" s="3">
-        <v>1</v>
-      </c>
-      <c r="T40" s="3">
-        <v>0</v>
-      </c>
-      <c r="U40" s="3">
-        <v>0</v>
-      </c>
-      <c r="V40" s="3">
-        <v>0</v>
-      </c>
-      <c r="W40" s="3">
-        <v>0</v>
-      </c>
-      <c r="X40" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -3845,8 +3680,8 @@
       <c r="E41" t="s">
         <v>2</v>
       </c>
-      <c r="F41">
-        <v>3.3600000000000003</v>
+      <c r="F41" s="2">
+        <v>0</v>
       </c>
       <c r="G41" s="2">
         <v>0</v>
@@ -3855,15 +3690,15 @@
         <v>0</v>
       </c>
       <c r="I41" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J41" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="K41" s="2">
         <v>0</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
@@ -3882,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S41" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
@@ -3900,18 +3735,15 @@
         <v>0</v>
       </c>
       <c r="X41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
         <v>17</v>
@@ -3922,8 +3754,8 @@
       <c r="E42" t="s">
         <v>2</v>
       </c>
-      <c r="F42">
-        <v>3.75</v>
+      <c r="F42" s="2">
+        <v>0</v>
       </c>
       <c r="G42" s="2">
         <v>0</v>
@@ -3932,43 +3764,43 @@
         <v>0</v>
       </c>
       <c r="I42" s="2">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="J42" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>1</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>33</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
         <v>12.5</v>
       </c>
-      <c r="K42" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="L42" s="2">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>1</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
-        <v>33</v>
-      </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
-      <c r="R42" s="3">
-        <v>0</v>
-      </c>
-      <c r="S42" s="3">
-        <v>0</v>
-      </c>
-      <c r="T42" s="3">
-        <v>0</v>
-      </c>
       <c r="U42" s="3">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
@@ -3977,18 +3809,15 @@
         <v>0</v>
       </c>
       <c r="X42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="3">
         <v>40.9</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
         <v>18</v>
@@ -3999,8 +3828,8 @@
       <c r="E43" t="s">
         <v>2</v>
       </c>
-      <c r="F43">
-        <v>3.7649999999999997</v>
+      <c r="F43" s="2">
+        <v>0</v>
       </c>
       <c r="G43" s="2">
         <v>0</v>
@@ -4009,63 +3838,60 @@
         <v>0</v>
       </c>
       <c r="I43" s="2">
-        <v>0</v>
+        <v>9.375</v>
       </c>
       <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>9.375</v>
       </c>
-      <c r="K43" s="2">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
-        <v>9.375</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O43" s="3">
         <v>20</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>2</v>
+      </c>
+      <c r="T43" s="3">
         <v>20</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-      <c r="T43" s="3">
-        <v>2</v>
-      </c>
       <c r="U43" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
       <c r="W43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X43" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y43" s="3">
         <v>18.25</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C44" t="s">
         <v>19</v>
@@ -4076,8 +3902,8 @@
       <c r="E44">
         <v>9.36</v>
       </c>
-      <c r="F44">
-        <v>3.8099999999999996</v>
+      <c r="F44" s="2">
+        <v>0</v>
       </c>
       <c r="G44" s="2">
         <v>0</v>
@@ -4086,43 +3912,43 @@
         <v>0</v>
       </c>
       <c r="I44" s="2">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>1</v>
+      </c>
+      <c r="N44" s="3">
+        <v>33</v>
+      </c>
+      <c r="O44" s="3">
+        <v>18.75</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
         <v>12.5</v>
       </c>
-      <c r="K44" s="2">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3">
-        <v>1</v>
-      </c>
-      <c r="O44" s="3">
-        <v>33</v>
-      </c>
-      <c r="P44" s="3">
-        <v>18.75</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-      <c r="R44" s="3">
-        <v>0</v>
-      </c>
-      <c r="S44" s="3">
-        <v>0</v>
-      </c>
-      <c r="T44" s="3">
-        <v>0</v>
-      </c>
       <c r="U44" s="3">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
@@ -4131,18 +3957,15 @@
         <v>0</v>
       </c>
       <c r="X44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="3">
         <v>22.25</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C45" t="s">
         <v>20</v>
@@ -4153,8 +3976,8 @@
       <c r="E45">
         <v>4.67</v>
       </c>
-      <c r="F45">
-        <v>3.7050000000000001</v>
+      <c r="F45" s="2">
+        <v>0</v>
       </c>
       <c r="G45" s="2">
         <v>0</v>
@@ -4163,33 +3986,33 @@
         <v>0</v>
       </c>
       <c r="I45" s="2">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2">
         <f>(60/106.5)*100</f>
         <v>56.338028169014088</v>
       </c>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
       <c r="K45" s="2">
         <v>0</v>
       </c>
-      <c r="L45" s="2">
+      <c r="L45" s="3">
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
         <f>(1/106.5)*100</f>
         <v>0.93896713615023475</v>
       </c>
-      <c r="O45" s="3">
+      <c r="N45" s="3">
         <f>(33/106.5)*100</f>
         <v>30.985915492957744</v>
       </c>
-      <c r="P45" s="3">
+      <c r="O45" s="3">
         <f>(6.25/106.5)*100</f>
         <v>5.868544600938967</v>
       </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
@@ -4200,12 +4023,12 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3">
         <f>(6.25/106.5)*100</f>
         <v>5.868544600938967</v>
       </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
@@ -4215,16 +4038,13 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C46" t="s">
         <v>21</v>
@@ -4235,8 +4055,8 @@
       <c r="E46">
         <v>9.09</v>
       </c>
-      <c r="F46">
-        <v>3.7549999999999999</v>
+      <c r="F46" s="2">
+        <v>0</v>
       </c>
       <c r="G46" s="2">
         <v>0</v>
@@ -4245,31 +4065,31 @@
         <v>0</v>
       </c>
       <c r="I46" s="2">
-        <v>0</v>
+        <v>9.375</v>
       </c>
       <c r="J46" s="2">
-        <v>9.375</v>
+        <v>0</v>
       </c>
       <c r="K46" s="2">
         <v>0</v>
       </c>
-      <c r="L46" s="2">
+      <c r="L46" s="3">
         <v>0</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O46" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q46" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R46" s="3">
         <v>0</v>
@@ -4278,10 +4098,10 @@
         <v>0</v>
       </c>
       <c r="T46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V46" s="3">
         <v>0</v>
@@ -4290,18 +4110,15 @@
         <v>0</v>
       </c>
       <c r="X46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="3">
         <v>69.525000000000006</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
         <v>22</v>
@@ -4312,8 +4129,8 @@
       <c r="E47">
         <v>9.44</v>
       </c>
-      <c r="F47">
-        <v>3.7050000000000001</v>
+      <c r="F47" s="2">
+        <v>0</v>
       </c>
       <c r="G47" s="2">
         <v>0</v>
@@ -4322,28 +4139,28 @@
         <v>0</v>
       </c>
       <c r="I47" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>1</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>1</v>
+      </c>
+      <c r="O47" s="3">
         <v>20</v>
       </c>
-      <c r="K47" s="2">
-        <v>0</v>
-      </c>
-      <c r="L47" s="2">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>1</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3">
-        <v>1</v>
-      </c>
       <c r="P47" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -4355,10 +4172,10 @@
         <v>0</v>
       </c>
       <c r="T47" s="3">
-        <v>0</v>
+        <v>3.125</v>
       </c>
       <c r="U47" s="3">
-        <v>3.125</v>
+        <v>0</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -4367,18 +4184,15 @@
         <v>0</v>
       </c>
       <c r="X47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="3">
         <v>54.875</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
         <v>23</v>
@@ -4389,8 +4203,8 @@
       <c r="E48" t="s">
         <v>2</v>
       </c>
-      <c r="F48">
-        <v>3.5999999999999996</v>
+      <c r="F48" s="2">
+        <v>0</v>
       </c>
       <c r="G48" s="2">
         <v>0</v>
@@ -4399,28 +4213,28 @@
         <v>0</v>
       </c>
       <c r="I48" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J48" s="2">
+        <v>0</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
         <v>20</v>
       </c>
-      <c r="K48" s="2">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
       <c r="O48" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P48" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -4429,13 +4243,13 @@
         <v>0</v>
       </c>
       <c r="S48" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" s="3">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="U48" s="3">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
@@ -4444,18 +4258,15 @@
         <v>0</v>
       </c>
       <c r="X48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C49" t="s">
         <v>24</v>
@@ -4466,8 +4277,8 @@
       <c r="E49" t="s">
         <v>2</v>
       </c>
-      <c r="F49">
-        <v>3.66</v>
+      <c r="F49" s="2">
+        <v>0</v>
       </c>
       <c r="G49" s="2">
         <v>0</v>
@@ -4476,28 +4287,28 @@
         <v>0</v>
       </c>
       <c r="I49" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J49" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K49" s="2">
         <v>0</v>
       </c>
-      <c r="L49" s="2">
+      <c r="L49" s="3">
         <v>0</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
       <c r="N49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" s="3">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="P49" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -4509,10 +4320,10 @@
         <v>0</v>
       </c>
       <c r="T49" s="3">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="U49" s="3">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
@@ -4521,13 +4332,10 @@
         <v>0</v>
       </c>
       <c r="X49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="3">
         <v>41.5</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -4543,8 +4351,8 @@
       <c r="E50">
         <v>11.09</v>
       </c>
-      <c r="F50">
-        <v>3.8849999999999998</v>
+      <c r="F50" s="2">
+        <v>0</v>
       </c>
       <c r="G50" s="2">
         <v>0</v>
@@ -4561,20 +4369,20 @@
       <c r="K50" s="2">
         <v>0</v>
       </c>
-      <c r="L50" s="2">
+      <c r="L50" s="3">
         <v>0</v>
       </c>
       <c r="M50" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N50" s="3">
-        <v>0.1</v>
+        <v>18.75</v>
       </c>
       <c r="O50" s="3">
-        <v>18.75</v>
+        <v>60</v>
       </c>
       <c r="P50" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="3">
         <v>0</v>
@@ -4586,10 +4394,10 @@
         <v>0</v>
       </c>
       <c r="T50" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U50" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V50" s="3">
         <v>0</v>
@@ -4598,13 +4406,10 @@
         <v>0</v>
       </c>
       <c r="X50" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="3">
         <v>19.150000000000006</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -4620,8 +4425,8 @@
       <c r="E51">
         <v>12.92</v>
       </c>
-      <c r="F51">
-        <v>3.75</v>
+      <c r="F51" s="2">
+        <v>0</v>
       </c>
       <c r="G51" s="2">
         <v>0</v>
@@ -4638,20 +4443,20 @@
       <c r="K51" s="2">
         <v>0</v>
       </c>
-      <c r="L51" s="2">
+      <c r="L51" s="3">
         <v>0</v>
       </c>
       <c r="M51" s="3">
         <v>0</v>
       </c>
       <c r="N51" s="3">
-        <v>0</v>
+        <v>9.375</v>
       </c>
       <c r="O51" s="3">
-        <v>9.375</v>
+        <v>25</v>
       </c>
       <c r="P51" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="3">
         <v>0</v>
@@ -4663,10 +4468,10 @@
         <v>0</v>
       </c>
       <c r="T51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V51" s="3">
         <v>0</v>
@@ -4675,13 +4480,10 @@
         <v>0</v>
       </c>
       <c r="X51" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="3">
         <v>64.625</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -4697,8 +4499,8 @@
       <c r="E52">
         <v>9.17</v>
       </c>
-      <c r="F52">
-        <v>3.95</v>
+      <c r="F52" s="2">
+        <v>0</v>
       </c>
       <c r="G52" s="2">
         <v>0</v>
@@ -4715,35 +4517,35 @@
       <c r="K52" s="2">
         <v>0</v>
       </c>
-      <c r="L52" s="2">
+      <c r="L52" s="3">
         <v>0</v>
       </c>
       <c r="M52" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N52" s="3">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="O52" s="3">
-        <v>25</v>
+        <v>9.375</v>
       </c>
       <c r="P52" s="3">
-        <v>9.375</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
       <c r="R52" s="3">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="S52" s="3">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="T52" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U52" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -4752,13 +4554,10 @@
         <v>0</v>
       </c>
       <c r="X52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="3">
         <v>56.375</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -4774,8 +4573,8 @@
       <c r="E53">
         <v>7.57</v>
       </c>
-      <c r="F53">
-        <v>3.96</v>
+      <c r="F53" s="2">
+        <v>0</v>
       </c>
       <c r="G53" s="2">
         <v>0</v>
@@ -4787,40 +4586,40 @@
         <v>0</v>
       </c>
       <c r="J53" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K53" s="2">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3">
         <v>0.1</v>
       </c>
-      <c r="L53" s="2">
-        <v>0</v>
-      </c>
       <c r="M53" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N53" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O53" s="3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="P53" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="3">
         <v>0</v>
       </c>
       <c r="R53" s="3">
-        <v>0</v>
+        <v>3.125</v>
       </c>
       <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
         <v>3.125</v>
       </c>
-      <c r="T53" s="3">
-        <v>0</v>
-      </c>
       <c r="U53" s="3">
-        <v>3.125</v>
+        <v>0</v>
       </c>
       <c r="V53" s="3">
         <v>0</v>
@@ -4829,13 +4628,10 @@
         <v>0</v>
       </c>
       <c r="X53" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="3">
         <v>58.55</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -4851,8 +4647,8 @@
       <c r="E54">
         <v>9.36</v>
       </c>
-      <c r="F54">
-        <v>3.7249999999999996</v>
+      <c r="F54" s="2">
+        <v>0</v>
       </c>
       <c r="G54" s="2">
         <v>0</v>
@@ -4869,20 +4665,20 @@
       <c r="K54" s="2">
         <v>0</v>
       </c>
-      <c r="L54" s="2">
+      <c r="L54" s="3">
         <v>0</v>
       </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
       <c r="N54" s="3">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="O54" s="3">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="P54" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="3">
         <v>0</v>
@@ -4891,13 +4687,13 @@
         <v>0</v>
       </c>
       <c r="S54" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T54" s="3">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="U54" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V54" s="3">
         <v>0</v>
@@ -4906,13 +4702,10 @@
         <v>0</v>
       </c>
       <c r="X54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="3">
         <v>60.4</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -4928,8 +4721,8 @@
       <c r="E55">
         <v>5.77</v>
       </c>
-      <c r="F55">
-        <v>3.7349999999999999</v>
+      <c r="F55" s="2">
+        <v>0</v>
       </c>
       <c r="G55" s="2">
         <v>0</v>
@@ -4941,25 +4734,25 @@
         <v>0</v>
       </c>
       <c r="J55" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K55" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="L55" s="2">
+        <v>0</v>
+      </c>
+      <c r="L55" s="3">
         <v>0</v>
       </c>
       <c r="M55" s="3">
         <v>0</v>
       </c>
       <c r="N55" s="3">
-        <v>0</v>
+        <v>9.375</v>
       </c>
       <c r="O55" s="3">
-        <v>9.375</v>
+        <v>20</v>
       </c>
       <c r="P55" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="3">
         <v>0</v>
@@ -4971,10 +4764,10 @@
         <v>0</v>
       </c>
       <c r="T55" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U55" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V55" s="3">
         <v>0</v>
@@ -4983,13 +4776,10 @@
         <v>0</v>
       </c>
       <c r="X55" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="3">
         <v>69.525000000000006</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -5005,8 +4795,8 @@
       <c r="E56">
         <v>9.11</v>
       </c>
-      <c r="F56">
-        <v>3.8650000000000002</v>
+      <c r="F56" s="2">
+        <v>0</v>
       </c>
       <c r="G56" s="2">
         <v>0</v>
@@ -5018,40 +4808,40 @@
         <v>0</v>
       </c>
       <c r="J56" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K56" s="2">
+        <v>0</v>
+      </c>
+      <c r="L56" s="3">
+        <v>0</v>
+      </c>
+      <c r="M56" s="3">
+        <v>0</v>
+      </c>
+      <c r="N56" s="3">
+        <v>9.375</v>
+      </c>
+      <c r="O56" s="3">
+        <v>20</v>
+      </c>
+      <c r="P56" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>0</v>
+      </c>
+      <c r="R56" s="3">
+        <v>0</v>
+      </c>
+      <c r="S56" s="3">
         <v>0.1</v>
       </c>
-      <c r="L56" s="2">
-        <v>0</v>
-      </c>
-      <c r="M56" s="3">
-        <v>0</v>
-      </c>
-      <c r="N56" s="3">
-        <v>0</v>
-      </c>
-      <c r="O56" s="3">
-        <v>9.375</v>
-      </c>
-      <c r="P56" s="3">
-        <v>20</v>
-      </c>
-      <c r="Q56" s="3">
-        <v>0</v>
-      </c>
-      <c r="R56" s="3">
-        <v>0</v>
-      </c>
-      <c r="S56" s="3">
-        <v>0</v>
-      </c>
       <c r="T56" s="3">
-        <v>0.1</v>
+        <v>6.25</v>
       </c>
       <c r="U56" s="3">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="V56" s="3">
         <v>0</v>
@@ -5060,13 +4850,10 @@
         <v>0</v>
       </c>
       <c r="X56" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y56" s="3">
         <v>64.174999999999997</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -5082,8 +4869,8 @@
       <c r="E57">
         <v>8.7100000000000009</v>
       </c>
-      <c r="F57">
-        <v>3.7850000000000001</v>
+      <c r="F57" s="2">
+        <v>0</v>
       </c>
       <c r="G57" s="2">
         <v>0</v>
@@ -5092,58 +4879,55 @@
         <v>0</v>
       </c>
       <c r="I57" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J57" s="2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="K57" s="2">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>1</v>
       </c>
-      <c r="L57" s="2">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>35</v>
+      </c>
+      <c r="O57" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>3.125</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
         <v>1</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3">
-        <v>35</v>
-      </c>
-      <c r="P57" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
-      <c r="U57" s="3">
-        <v>3.125</v>
-      </c>
-      <c r="V57" s="3">
-        <v>0</v>
-      </c>
-      <c r="W57" s="3">
-        <v>0</v>
-      </c>
       <c r="X57" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y57" s="3">
         <v>46.274999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -5159,8 +4943,8 @@
       <c r="E58">
         <v>6.44</v>
       </c>
-      <c r="F58">
-        <v>3.5</v>
+      <c r="F58" s="2">
+        <v>0</v>
       </c>
       <c r="G58" s="2">
         <v>0</v>
@@ -5169,15 +4953,15 @@
         <v>0</v>
       </c>
       <c r="I58" s="2">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="J58" s="2">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="K58" s="2">
         <v>0</v>
       </c>
-      <c r="L58" s="2">
+      <c r="L58" s="3">
         <v>0</v>
       </c>
       <c r="M58" s="3">
@@ -5187,10 +4971,10 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P58" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -5202,10 +4986,10 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U58" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -5214,13 +4998,10 @@
         <v>0</v>
       </c>
       <c r="X58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -5236,8 +5017,8 @@
       <c r="E59">
         <v>8.02</v>
       </c>
-      <c r="F59">
-        <v>3.57</v>
+      <c r="F59" s="2">
+        <v>0</v>
       </c>
       <c r="G59" s="2">
         <v>0</v>
@@ -5246,28 +5027,28 @@
         <v>0</v>
       </c>
       <c r="I59" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J59" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="K59" s="2">
         <v>0</v>
       </c>
-      <c r="L59" s="2">
-        <v>0</v>
+      <c r="L59" s="3">
+        <v>6.25</v>
       </c>
       <c r="M59" s="3">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O59" s="3">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="P59" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -5291,13 +5072,10 @@
         <v>0</v>
       </c>
       <c r="X59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="3">
         <v>1.6500000000000057</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -5313,68 +5091,65 @@
       <c r="E60">
         <v>8.93</v>
       </c>
-      <c r="F60">
-        <v>4.2450000000000001</v>
+      <c r="F60" s="2">
+        <v>0</v>
       </c>
       <c r="G60" s="2">
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="H60" s="2">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2">
+        <v>6.25</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0</v>
+      </c>
+      <c r="K60" s="2">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
+        <v>6.25</v>
+      </c>
+      <c r="M60" s="3">
         <v>16.666666666666664</v>
       </c>
-      <c r="I60" s="2">
-        <v>0</v>
-      </c>
-      <c r="J60" s="2">
+      <c r="N60" s="3">
+        <v>1</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>1</v>
+      </c>
+      <c r="W60" s="3">
         <v>6.25</v>
       </c>
-      <c r="K60" s="2">
-        <v>0</v>
-      </c>
-      <c r="L60" s="2">
-        <v>0</v>
-      </c>
-      <c r="M60" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="N60" s="3">
-        <v>16.666666666666664</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1</v>
-      </c>
-      <c r="P60" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>0</v>
-      </c>
-      <c r="R60" s="3">
-        <v>0</v>
-      </c>
-      <c r="S60" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="T60" s="3">
-        <v>0</v>
-      </c>
-      <c r="U60" s="3">
-        <v>0</v>
-      </c>
-      <c r="V60" s="3">
-        <v>0</v>
-      </c>
-      <c r="W60" s="3">
-        <v>1</v>
-      </c>
       <c r="X60" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="Y60" s="3">
         <v>33.416666666666671</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -5390,75 +5165,72 @@
       <c r="E61">
         <v>6.15</v>
       </c>
-      <c r="F61">
-        <v>3.95</v>
+      <c r="F61" s="2">
+        <v>0</v>
       </c>
       <c r="G61" s="2">
-        <v>0</v>
-      </c>
-      <c r="H61" s="2">
         <f>(33/111.6)*100</f>
         <v>29.56989247311828</v>
       </c>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
       <c r="I61" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J61" s="2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="2">
         <v>0</v>
       </c>
-      <c r="L61" s="2">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
+      <c r="L61" s="3">
         <f>(1/111.6)*100</f>
         <v>0.89605734767025103</v>
       </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
       <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
         <f>(6.25/111.6)*100</f>
         <v>5.6003584229390686</v>
       </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
       <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
         <f>(6.25/111.6)*100</f>
         <v>5.6003584229390686</v>
       </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
       <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
         <f>(12.5/111.6)*100</f>
         <v>11.200716845878137</v>
       </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
       <c r="U61" s="3">
-        <v>0</v>
-      </c>
-      <c r="V61" s="3">
         <f>(40/111.6)*100</f>
         <v>35.842293906810035</v>
       </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
       <c r="W61" s="3">
-        <v>0</v>
-      </c>
-      <c r="X61" s="3">
         <f>(12.5/111.6)*100</f>
         <v>11.200716845878137</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -5474,47 +5246,47 @@
       <c r="E62">
         <v>7.34</v>
       </c>
-      <c r="F62">
-        <v>3.95</v>
+      <c r="F62" s="2">
+        <v>0</v>
       </c>
       <c r="G62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" s="2">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2">
+        <v>6.25</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0</v>
+      </c>
+      <c r="K62" s="2">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>1</v>
       </c>
-      <c r="I62" s="2">
-        <v>0</v>
-      </c>
-      <c r="J62" s="2">
-        <v>6.25</v>
-      </c>
-      <c r="K62" s="2">
-        <v>0</v>
-      </c>
-      <c r="L62" s="2">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
       <c r="O62" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P62" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q62" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R62" s="3">
-        <v>0</v>
+        <v>18.75</v>
       </c>
       <c r="S62" s="3">
-        <v>18.75</v>
+        <v>0</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -5529,13 +5301,10 @@
         <v>0</v>
       </c>
       <c r="X62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -5551,56 +5320,56 @@
       <c r="E63">
         <v>6.79</v>
       </c>
-      <c r="F63">
-        <v>3.8899999999999997</v>
+      <c r="F63" s="2">
+        <v>0</v>
       </c>
       <c r="G63" s="2">
-        <v>0</v>
-      </c>
-      <c r="H63" s="2">
         <f>(3.125/104)*100</f>
         <v>3.0048076923076925</v>
       </c>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
       <c r="I63" s="2">
-        <v>0</v>
-      </c>
-      <c r="J63" s="2">
         <f>(3.125/104)*100</f>
         <v>3.0048076923076925</v>
       </c>
+      <c r="J63" s="2">
+        <v>0</v>
+      </c>
       <c r="K63" s="2">
         <v>0</v>
       </c>
-      <c r="L63" s="2">
-        <v>0</v>
-      </c>
-      <c r="M63" s="3">
+      <c r="L63" s="3">
         <f>(25/104)*100</f>
         <v>24.03846153846154</v>
       </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
       <c r="N63" s="3">
-        <v>0</v>
-      </c>
-      <c r="O63" s="3">
         <f>(20/104)*100</f>
         <v>19.230769230769234</v>
       </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
       <c r="P63" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="3">
         <f>(33/104)*100</f>
         <v>31.73076923076923</v>
       </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
       <c r="R63" s="3">
-        <v>0</v>
-      </c>
-      <c r="S63" s="3">
         <f>(12.5/104)*100</f>
         <v>12.01923076923077</v>
       </c>
+      <c r="S63" s="3">
+        <v>1</v>
+      </c>
       <c r="T63" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U63" s="3">
         <v>0</v>
@@ -5609,17 +5378,14 @@
         <v>0</v>
       </c>
       <c r="W63" s="3">
-        <v>0</v>
-      </c>
-      <c r="X63" s="3">
         <f>(6.25/104)*100</f>
         <v>6.009615384615385</v>
       </c>
-      <c r="Y63" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -5635,8 +5401,8 @@
       <c r="E64">
         <v>6.99</v>
       </c>
-      <c r="F64">
-        <v>3.9749999999999996</v>
+      <c r="F64" s="2">
+        <v>0</v>
       </c>
       <c r="G64" s="2">
         <v>0</v>
@@ -5645,42 +5411,42 @@
         <v>0</v>
       </c>
       <c r="I64" s="2">
-        <v>0</v>
-      </c>
-      <c r="J64" s="2">
         <f>(75/130.125)*100</f>
         <v>57.636887608069166</v>
       </c>
+      <c r="J64" s="2">
+        <v>0</v>
+      </c>
       <c r="K64" s="2">
         <v>0</v>
       </c>
-      <c r="L64" s="2">
+      <c r="L64" s="3">
         <v>0</v>
       </c>
       <c r="M64" s="3">
         <v>0</v>
       </c>
       <c r="N64" s="3">
-        <v>0</v>
-      </c>
-      <c r="O64" s="3">
         <f>(1/130.125)*100</f>
         <v>0.76849183477425553</v>
       </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
       <c r="P64" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="3">
         <f>(50/130.125)*100</f>
         <v>38.424591738712778</v>
       </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
       <c r="R64" s="3">
-        <v>0</v>
-      </c>
-      <c r="S64" s="3">
         <f>(1/130.125)*100</f>
         <v>0.76849183477425553</v>
       </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
       <c r="T64" s="3">
         <v>0</v>
       </c>
@@ -5691,17 +5457,14 @@
         <v>0</v>
       </c>
       <c r="W64" s="3">
-        <v>0</v>
-      </c>
-      <c r="X64" s="3">
         <f>(3.125/130.125)*100</f>
         <v>2.4015369836695486</v>
       </c>
-      <c r="Y64" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -5717,8 +5480,8 @@
       <c r="E65">
         <v>6.49</v>
       </c>
-      <c r="F65">
-        <v>3.95</v>
+      <c r="F65" s="2">
+        <v>0</v>
       </c>
       <c r="G65" s="2">
         <v>0</v>
@@ -5727,37 +5490,37 @@
         <v>0</v>
       </c>
       <c r="I65" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J65" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K65" s="2">
         <v>0</v>
       </c>
-      <c r="L65" s="2">
+      <c r="L65" s="3">
         <v>0</v>
       </c>
       <c r="M65" s="3">
         <v>0</v>
       </c>
       <c r="N65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O65" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P65" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q65" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="R65" s="3">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="S65" s="3">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="T65" s="3">
         <v>0</v>
@@ -5772,14 +5535,11 @@
         <v>0</v>
       </c>
       <c r="X65" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y65" s="3">
         <v>2.75</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:X65">
+  <sortState ref="A2:W65">
     <sortCondition ref="A2:A65"/>
     <sortCondition ref="C2:C65"/>
   </sortState>
@@ -5789,21 +5549,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100483727557648AA40B029C215891F95C5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d36f379eec1cf084072dcf956aecbcf8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8c008993-a31f-4b40-b1f3-88dd9c6e1924" xmlns:ns4="360018dd-41eb-4458-b1d4-4b46a95a2b02" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd1f472f1ef3281fe4dbeb8213942d38" ns3:_="" ns4:_="">
     <xsd:import namespace="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
@@ -6032,32 +5777,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2C28B76-38B1-42C2-BC86-877DCD4E3D41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48A40046-D3A0-4D6D-B520-70CE63006EFE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97813DBA-621D-4C89-861D-3205ECE7D34D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6074,4 +5809,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48A40046-D3A0-4D6D-B520-70CE63006EFE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2C28B76-38B1-42C2-BC86-877DCD4E3D41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>